--- a/results/FrequencyTables/26775808_sgRNA-3.xlsx
+++ b/results/FrequencyTables/26775808_sgRNA-3.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.02</v>
+        <v>0.0152008686210641</v>
       </c>
       <c r="C2">
-        <v>0.96</v>
+        <v>0.959826275787188</v>
       </c>
       <c r="D2">
-        <v>0.02</v>
+        <v>0.01085776330076</v>
       </c>
       <c r="E2">
-        <v>0.83</v>
+        <v>0.767643865363735</v>
       </c>
       <c r="F2">
-        <v>0.04</v>
+        <v>0.0249728555917481</v>
       </c>
       <c r="G2">
-        <v>0.02</v>
+        <v>0.00651465798045603</v>
       </c>
       <c r="H2">
-        <v>0.03</v>
+        <v>0.0217155266015201</v>
       </c>
       <c r="I2">
-        <v>0.92</v>
+        <v>0.861020629750271</v>
       </c>
       <c r="J2">
-        <v>0.01</v>
+        <v>0.00760043431053203</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.00325732899022801</v>
       </c>
       <c r="L2">
-        <v>0.05</v>
+        <v>0.0325732899022801</v>
       </c>
       <c r="M2">
-        <v>0.92</v>
+        <v>0.894679695982628</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.001085776330076</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.00217155266015201</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.00325732899022801</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.00542888165038002</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.00217155266015201</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.00217155266015201</v>
       </c>
       <c r="U2">
-        <v>0.91</v>
+        <v>0.861020629750271</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0.01</v>
+        <v>0.00651465798045603</v>
       </c>
       <c r="X2">
-        <v>0.01</v>
+        <v>0.00542888165038002</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.001085776330076</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.04</v>
+        <v>0.0271444082519001</v>
       </c>
       <c r="E3">
-        <v>0.04</v>
+        <v>0.0206297502714441</v>
       </c>
       <c r="F3">
-        <v>0.16</v>
+        <v>0.154180238870793</v>
       </c>
       <c r="G3">
-        <v>0.94</v>
+        <v>0.96742671009772</v>
       </c>
       <c r="H3">
-        <v>0.97</v>
+        <v>0.97828447339848</v>
       </c>
       <c r="I3">
-        <v>0.05</v>
+        <v>0.106406080347448</v>
       </c>
       <c r="J3">
-        <v>0.91</v>
+        <v>0.922909880564604</v>
       </c>
       <c r="K3">
-        <v>0.01</v>
+        <v>0.00977198697068404</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.001085776330076</v>
       </c>
       <c r="N3">
-        <v>0.86</v>
+        <v>0.867535287730728</v>
       </c>
       <c r="O3">
-        <v>0.98</v>
+        <v>0.966340933767644</v>
       </c>
       <c r="P3">
-        <v>0.03</v>
+        <v>0.0314875135722041</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.001085776330076</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.0184581976112921</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.00434310532030402</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.001085776330076</v>
       </c>
       <c r="U3">
-        <v>0.05</v>
+        <v>0.0206297502714441</v>
       </c>
       <c r="V3">
-        <v>0.01</v>
+        <v>0.00651465798045603</v>
       </c>
       <c r="W3">
-        <v>0.04</v>
+        <v>0.0249728555917481</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.00217155266015201</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,43 +613,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.97</v>
+        <v>0.976112920738328</v>
       </c>
       <c r="C4">
-        <v>0.03</v>
+        <v>0.0347448425624321</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.001085776330076</v>
       </c>
       <c r="E4">
-        <v>0.02</v>
+        <v>0.0249728555917481</v>
       </c>
       <c r="F4">
-        <v>0.04</v>
+        <v>0.0314875135722041</v>
       </c>
       <c r="G4">
-        <v>0.03</v>
+        <v>0.0206297502714441</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.00434310532030402</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.00217155266015201</v>
       </c>
       <c r="L4">
-        <v>0.95</v>
+        <v>0.957654723127036</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.00325732899022801</v>
       </c>
       <c r="N4">
-        <v>0.11</v>
+        <v>0.120521172638436</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -658,28 +658,28 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.01</v>
+        <v>0.00542888165038002</v>
       </c>
       <c r="R4">
-        <v>0.05</v>
+        <v>0.0228013029315961</v>
       </c>
       <c r="S4">
-        <v>0.99</v>
+        <v>0.990228013029316</v>
       </c>
       <c r="T4">
-        <v>0.99</v>
+        <v>0.98914223669924</v>
       </c>
       <c r="U4">
-        <v>0.04</v>
+        <v>0.109663409337676</v>
       </c>
       <c r="V4">
-        <v>0.03</v>
+        <v>0.0238870792616721</v>
       </c>
       <c r="W4">
-        <v>0.95</v>
+        <v>0.965255157437568</v>
       </c>
       <c r="X4">
-        <v>0.95</v>
+        <v>0.965255157437568</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.01</v>
+        <v>0.00760043431053203</v>
       </c>
       <c r="C5">
-        <v>0.01</v>
+        <v>0.00542888165038002</v>
       </c>
       <c r="D5">
-        <v>0.94</v>
+        <v>0.960912052117264</v>
       </c>
       <c r="E5">
-        <v>0.11</v>
+        <v>0.186753528773073</v>
       </c>
       <c r="F5">
-        <v>0.76</v>
+        <v>0.789359391965255</v>
       </c>
       <c r="G5">
-        <v>0.01</v>
+        <v>0.00434310532030402</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.03</v>
+        <v>0.0282301845819761</v>
       </c>
       <c r="J5">
-        <v>0.08</v>
+        <v>0.0694896851248643</v>
       </c>
       <c r="K5">
-        <v>0.99</v>
+        <v>0.984799131378936</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.00977198697068404</v>
       </c>
       <c r="M5">
-        <v>0.08</v>
+        <v>0.100977198697068</v>
       </c>
       <c r="N5">
-        <v>0.03</v>
+        <v>0.01085776330076</v>
       </c>
       <c r="O5">
-        <v>0.02</v>
+        <v>0.0314875135722041</v>
       </c>
       <c r="P5">
-        <v>0.97</v>
+        <v>0.965255157437568</v>
       </c>
       <c r="Q5">
-        <v>0.99</v>
+        <v>0.988056460369164</v>
       </c>
       <c r="R5">
-        <v>0.95</v>
+        <v>0.958740499457112</v>
       </c>
       <c r="S5">
-        <v>0.01</v>
+        <v>0.00325732899022801</v>
       </c>
       <c r="T5">
-        <v>0.01</v>
+        <v>0.00760043431053203</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.00868621064060804</v>
       </c>
       <c r="V5">
-        <v>0.96</v>
+        <v>0.969598262757872</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.00217155266015201</v>
       </c>
       <c r="X5">
-        <v>0.04</v>
+        <v>0.0249728555917481</v>
       </c>
     </row>
   </sheetData>
